--- a/FAB/BOM_JLCSMT.xlsx
+++ b/FAB/BOM_JLCSMT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\Matt\Documents\WorkRepo\The-Black-Hellebore\FAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2CD83EE-49D3-4C16-B37E-FA1648BA856F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C118FC9-D733-4672-AA82-BB6C4E069532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="2175" windowWidth="24855" windowHeight="16920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="1935" windowWidth="15495" windowHeight="18675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>Comment</t>
   </si>
@@ -90,9 +90,6 @@
     <t>DX07S016JA1R1500</t>
   </si>
   <si>
-    <t>352212RFT</t>
-  </si>
-  <si>
     <t>SK6812MINI-E</t>
   </si>
   <si>
@@ -111,18 +108,9 @@
     <t>MIC803-26D4VC3-TR</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26, C27, C28, C29, C30, C31, C32, C33, C34, C35, C36, C37, C38, C39, C40, C41, C42, C43, C44, C45, C46, C47, C48, C49, C50, C51, C52, C53, C54, C55, C56, C57, C58, C59, C60, C61, C62, C63, C64, C65, C66, C67, C70, C71</t>
-  </si>
-  <si>
-    <t>C68, C69</t>
-  </si>
-  <si>
     <t>CR1</t>
   </si>
   <si>
-    <t>D1, D2, D3, D4, D5, D6, D7, D8, D9, D10, D11, D12, D13, D14, D15, D16, D17, D18, D19, D20, D21, D22, D23, D24, D25, D26, D27, D28, D29, D30, D31, D32, D33, D34, D35, D36, D37, D38, D39, D40, D41, D42, D43, D44, D45, D46, D47, D48, D49, D50, D51, D52, D53, D54, D55, D56, D57, D58, D59, D60, D61</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -132,12 +120,6 @@
     <t>J1</t>
   </si>
   <si>
-    <t>R1, R5, R7</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>R3, R4</t>
   </si>
   <si>
@@ -180,9 +162,6 @@
     <t>FP-RMCF0603-MFG</t>
   </si>
   <si>
-    <t>RESC6332X120N</t>
-  </si>
-  <si>
     <t>sk6812minie</t>
   </si>
   <si>
@@ -201,15 +180,9 @@
     <t>SC-70_C3_MCH</t>
   </si>
   <si>
-    <t>GRM21BR6YA106KE43L</t>
-  </si>
-  <si>
     <t>C162422</t>
   </si>
   <si>
-    <t>C1608X7R1H104KT000N</t>
-  </si>
-  <si>
     <t>C56476</t>
   </si>
   <si>
@@ -222,21 +195,12 @@
     <t>C19330</t>
   </si>
   <si>
-    <t>AT0603BRD0710KL</t>
-  </si>
-  <si>
     <t>C723396</t>
   </si>
   <si>
-    <t>AT0603BRD075K1L</t>
-  </si>
-  <si>
     <t>C914801</t>
   </si>
   <si>
-    <t>PTFR0603D1K00P9</t>
-  </si>
-  <si>
     <t>C369944</t>
   </si>
   <si>
@@ -244,6 +208,87 @@
   </si>
   <si>
     <t>C150720</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB104</t>
+  </si>
+  <si>
+    <t>GRM21BR71A106KA73K</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R7BB105</t>
+  </si>
+  <si>
+    <t>RMCF0603JT10K0</t>
+  </si>
+  <si>
+    <t>RMCF0603JT5K10</t>
+  </si>
+  <si>
+    <t>RMCF0603JT1K00</t>
+  </si>
+  <si>
+    <t>RMCF0603JT100K</t>
+  </si>
+  <si>
+    <t>RMCF0603FT68K0</t>
+  </si>
+  <si>
+    <t>RMCF0603ZT0R00</t>
+  </si>
+  <si>
+    <t>AP22653AW6-7</t>
+  </si>
+  <si>
+    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26, C27, C28, C29, C30, C31, C32, C33, C34, C35, C36, C37, C38, C39, C40, C41, C42, C43, C44, C45, C46, C47, C48, C49, C50, C51, C52, C53, C54, C55, C56, C57, C58, C59, C60, C61, C62, C63, C64, C65, C66, C67, C69, C70, C71</t>
+  </si>
+  <si>
+    <t>C68, C72</t>
+  </si>
+  <si>
+    <t>C73</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4, D5, D6, D7, D8, D9, D10, D11, D12, D13, D14, D15, D16, D17, D18, D19, D20, D21, D22, D23, D24, D25, D26, D27, D28, D29, D30, D31, D32, D33, D34, D35, D36, D37, D38, D39, D40, D41, D42, D43, D44, D45, D46, D47, D48, D49, D50, D51, D52, D53, D54, D55, D56, D57, D58, D59, D60, D61, D62</t>
+  </si>
+  <si>
+    <t>R1, R2, R5, R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>SOT26-A1_DIO</t>
+  </si>
+  <si>
+    <t>C696843</t>
+  </si>
+  <si>
+    <t>C132258</t>
+  </si>
+  <si>
+    <t>C335088</t>
+  </si>
+  <si>
+    <t>C384197</t>
+  </si>
+  <si>
+    <t>C233650</t>
+  </si>
+  <si>
+    <t>C1511768</t>
+  </si>
+  <si>
+    <t>DNP</t>
   </si>
 </sst>
 </file>
@@ -686,7 +731,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -712,222 +757,297 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" t="s">
-        <v>50</v>
+      <c r="A2" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" t="s">
-        <v>48</v>
+      <c r="A3" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4"/>
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
+        <v>31</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8"/>
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A11" t="s">
-        <v>57</v>
+      <c r="A11" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A12" t="s">
-        <v>59</v>
+      <c r="A12" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
+        <v>36</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
